--- a/data/2FEB_25_26/players_25_26_2FEB_games.xlsx
+++ b/data/2FEB_25_26/players_25_26_2FEB_games.xlsx
@@ -17457,7 +17457,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>UEMC CBC VALLADOLID</t>
+          <t>UEMC BALONCESTO VALLADOLID</t>
         </is>
       </c>
       <c r="E174" t="n">
@@ -18334,7 +18334,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>UEMC CBC VALLADOLID</t>
+          <t>UEMC BALONCESTO VALLADOLID</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
